--- a/mapping/mml_extref_mapping.xlsx
+++ b/mapping/mml_extref_mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>Elements</t>
   </si>
@@ -40,10 +40,6 @@
   </si>
   <si>
     <t>#IMPLIED</t>
-  </si>
-  <si>
-    <t>MML</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Node</t>
@@ -104,7 +100,41 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>comment?</t>
+    <t>MML外部参照形式</t>
+    <rPh sb="3" eb="5">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>data type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_URI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_PARSABLE
+DV_MULTIMEDIA</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -146,7 +176,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -169,13 +199,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -198,6 +237,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -504,7 +546,7 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection sqref="A1:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -513,20 +555,21 @@
     <col min="3" max="3" width="20.75" customWidth="1"/>
     <col min="5" max="5" width="12.25" customWidth="1"/>
     <col min="8" max="8" width="20.125" customWidth="1"/>
+    <col min="9" max="9" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
@@ -547,16 +590,19 @@
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>12</v>
-      </c>
-      <c r="N2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
@@ -564,7 +610,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -572,11 +618,11 @@
       <c r="F3" s="6"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>5</v>
@@ -586,14 +632,17 @@
       </c>
       <c r="F4" s="6"/>
       <c r="H4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>5</v>
@@ -603,14 +652,17 @@
       </c>
       <c r="F5" s="6"/>
       <c r="H5" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>5</v>
@@ -619,8 +671,11 @@
         <v>7</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="H6" s="7" t="s">
-        <v>24</v>
+      <c r="H6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="K6" s="2"/>
     </row>
@@ -628,7 +683,7 @@
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>5</v>
@@ -638,7 +693,10 @@
       </c>
       <c r="F7" s="6"/>
       <c r="H7" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">

--- a/mapping/mml_extref_mapping.xlsx
+++ b/mapping/mml_extref_mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>Elements</t>
   </si>
@@ -62,10 +62,6 @@
     <rPh sb="1" eb="4">
       <t>ミテイギ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HL7 FHIR</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -135,6 +131,26 @@
   <si>
     <t>DV_PARSABLE
 DV_MULTIMEDIA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0004]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0003]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0002]/value</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -176,7 +192,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -199,22 +215,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -237,9 +244,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -545,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -555,21 +559,18 @@
     <col min="3" max="3" width="20.75" customWidth="1"/>
     <col min="5" max="5" width="12.25" customWidth="1"/>
     <col min="8" max="8" width="20.125" customWidth="1"/>
-    <col min="9" max="9" width="24.625" customWidth="1"/>
+    <col min="9" max="9" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" t="s">
         <v>9</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
@@ -593,15 +594,18 @@
         <v>8</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" t="s">
         <v>10</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>11</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -610,7 +614,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -622,7 +626,7 @@
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>5</v>
@@ -632,17 +636,20 @@
       </c>
       <c r="F4" s="6"/>
       <c r="H4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>5</v>
@@ -652,17 +659,20 @@
       </c>
       <c r="F5" s="6"/>
       <c r="H5" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>5</v>
@@ -671,11 +681,14 @@
         <v>7</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>26</v>
+      <c r="J6" t="s">
+        <v>32</v>
       </c>
       <c r="K6" s="2"/>
     </row>
@@ -683,7 +696,7 @@
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>5</v>
@@ -693,10 +706,13 @@
       </c>
       <c r="F7" s="6"/>
       <c r="H7" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
